--- a/buscas.xlsx
+++ b/buscas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Nome</t>
   </si>
@@ -28,16 +28,25 @@
     <t>Preço máximo</t>
   </si>
   <si>
-    <t>iphone 12 64 gb vermelho</t>
-  </si>
-  <si>
-    <t>mini watch case charger usado seminovo semi-novo 11 X XR XS</t>
+    <t>iphone 12 64 gb red</t>
+  </si>
+  <si>
+    <t>mini watch case charger usado seminovo semi-novo 11 X XR XS SE 8 vitrine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone 12 64 gb vermelho </t>
+  </si>
+  <si>
+    <t>playstation 5</t>
+  </si>
+  <si>
+    <t>usado digital</t>
   </si>
   <si>
     <t>rtx 3060</t>
   </si>
   <si>
-    <t>zota galax</t>
+    <t>zotac galax</t>
   </si>
 </sst>
 </file>
@@ -45,7 +54,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +66,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -94,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -106,6 +121,12 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -416,16 +437,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="32.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="64.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="32.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="64.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="15.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -452,8 +473,8 @@
       <c r="C2" s="4">
         <v>3000</v>
       </c>
-      <c r="D2" s="4">
-        <v>3500</v>
+      <c r="D2" s="5">
+        <v>5000</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -461,12 +482,40 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6">
         <v>4000</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D4" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4000</v>
+      </c>
+      <c r="D5" s="5">
         <v>4500</v>
       </c>
     </row>

--- a/buscas.xlsx
+++ b/buscas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Nome</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t xml:space="preserve">iphone 12 64 gb vermelho </t>
+  </si>
+  <si>
+    <t>Aspirador de pó</t>
+  </si>
+  <si>
+    <t>fio</t>
   </si>
   <si>
     <t>playstation 5</t>
@@ -71,13 +77,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -123,10 +129,10 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -437,7 +443,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -473,7 +479,7 @@
       <c r="C2" s="4">
         <v>3000</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>5000</v>
       </c>
     </row>
@@ -484,10 +490,10 @@
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>3000</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>5000</v>
       </c>
     </row>
@@ -498,24 +504,38 @@
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6">
-        <v>4000</v>
-      </c>
-      <c r="D4" s="6">
-        <v>6000</v>
+      <c r="C4" s="5">
+        <v>500</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>4000</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4000</v>
+      </c>
+      <c r="D6" s="4">
         <v>4500</v>
       </c>
     </row>

--- a/buscas.xlsx
+++ b/buscas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Nome</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>usado digital</t>
+  </si>
+  <si>
+    <t>impressora</t>
+  </si>
+  <si>
+    <t>epson</t>
   </si>
   <si>
     <t>rtx 3060</t>
@@ -129,10 +135,10 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -443,7 +449,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -511,31 +517,45 @@
         <v>2000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>4000</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>6000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
+        <v>200</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4">
         <v>4000</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D7" s="4">
         <v>4500</v>
       </c>
     </row>
